--- a/Java Backend roadmap 2024.xlsx
+++ b/Java Backend roadmap 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kronos-my.sharepoint.com/personal/utsav_kumar_ukg_com/Documents/Desktop/java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{BB415139-1DEB-4447-B606-61ADA015B313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E329B2A8-38D7-4828-97DF-895E3D991603}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{BB415139-1DEB-4447-B606-61ADA015B313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06FBB07A-8D01-49F5-8375-922A36F30825}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="530" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoadMap" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -736,11 +736,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -825,6 +825,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1126,133 +1130,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="53.21875" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="10" spans="1:10" s="19" customFormat="1">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="10" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="F13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1266,55 +1270,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="30" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1354,25 +1358,25 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="67.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:2" ht="28.9">
+    <row r="7" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="28.9">
+    <row r="10" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
@@ -1398,27 +1402,27 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="108.7109375" style="1" customWidth="1"/>
-    <col min="4" max="27" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="108.77734375" style="1" customWidth="1"/>
+    <col min="4" max="27" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -1429,7 +1433,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -1451,7 +1455,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -1462,7 +1466,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57.6">
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="100.9">
+    <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -1506,24 +1510,24 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>1</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34.9" customHeight="1">
+    <row r="17" spans="1:3" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>2</v>
       </c>
@@ -1545,24 +1549,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>1</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.35" customHeight="1">
+    <row r="22" spans="1:3" ht="31.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>2</v>
       </c>
@@ -1600,20 +1604,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="99.28515625" customWidth="1"/>
-    <col min="4" max="24" width="8.7109375" customWidth="1"/>
-    <col min="16384" max="16384" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="99.21875" customWidth="1"/>
+    <col min="4" max="24" width="8.77734375" customWidth="1"/>
+    <col min="16384" max="16384" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="21" customFormat="1">
+    <row r="2" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="21" customFormat="1">
+    <row r="3" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="21" customFormat="1" ht="28.9">
+    <row r="4" spans="1:3" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="21" customFormat="1" ht="28.9">
+    <row r="5" spans="1:3" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1679,7 +1683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.9">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1690,7 +1694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.9">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1756,7 +1760,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.9">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.9">
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1822,7 +1826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>71</v>
       </c>
@@ -1852,17 +1856,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>74</v>
       </c>
@@ -1900,17 +1904,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1919,7 +1923,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="28.9">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1930,7 +1934,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.9">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.9">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.9">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.9">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.9">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>8</v>
       </c>
@@ -2007,13 +2011,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2022,7 +2026,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="28.9">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2033,7 +2037,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.9">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2044,21 +2048,21 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" ht="28.9">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:3" ht="28.9">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>91</v>
       </c>
@@ -2088,13 +2092,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2103,21 +2107,21 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3" ht="28.9">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" ht="28.9">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>94</v>
       </c>
@@ -2146,13 +2150,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2161,7 +2165,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="28.9">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2172,7 +2176,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.9">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2183,7 +2187,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.9">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.9">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.9">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.9">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2227,7 +2231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.9">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.15">
+    <row r="9" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2249,7 +2253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.9">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.9">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.9">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.9">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.9">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -2304,11 +2308,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" ht="28.9">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>121</v>
       </c>
@@ -2338,25 +2342,25 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:2" ht="28.9">
+    <row r="7" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="28.9">
+    <row r="10" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
@@ -2379,25 +2383,25 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:2" ht="28.9">
+    <row r="7" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="28.9">
+    <row r="10" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
@@ -2423,25 +2427,25 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:2" ht="28.9">
+    <row r="7" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="28.9">
+    <row r="10" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
